--- a/release-branch/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/release-branch/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-27T22:56:13+00:00</t>
+    <t>2024-10-01T20:52:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/release-branch/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-01T20:52:52+00:00</t>
+    <t>2024-10-10T23:13:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/release-branch/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-10T23:13:09+00:00</t>
+    <t>2024-10-11T20:59:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/release-branch/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T20:59:30+00:00</t>
+    <t>2024-10-11T21:12:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/release-branch/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T21:12:40+00:00</t>
+    <t>2024-10-11T22:07:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/release-branch/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T22:07:31+00:00</t>
+    <t>2024-10-11T22:13:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/release-branch/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T22:13:26+00:00</t>
+    <t>2024-10-15T18:43:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/release-branch/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-15T18:43:47+00:00</t>
+    <t>2024-10-23T18:46:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/release-branch/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T18:46:58+00:00</t>
+    <t>2024-10-24T18:05:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/release-branch/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T18:05:53+00:00</t>
+    <t>2024-10-31T18:32:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -11139,7 +11139,7 @@
         <v>87</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L85" t="s" s="2">
         <v>187</v>
@@ -14765,7 +14765,7 @@
         <v>87</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L117" t="s" s="2">
         <v>187</v>

--- a/release-branch/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/release-branch/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T18:32:51+00:00</t>
+    <t>2024-12-09T22:50:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/release-branch/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T22:50:07+00:00</t>
+    <t>2024-12-09T22:59:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/release-branch/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T22:59:04+00:00</t>
+    <t>2024-12-09T23:04:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/release-branch/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T23:04:44+00:00</t>
+    <t>2025-01-11T00:36:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -11139,7 +11139,7 @@
         <v>87</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L85" t="s" s="2">
         <v>187</v>
@@ -14765,7 +14765,7 @@
         <v>87</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L117" t="s" s="2">
         <v>187</v>

--- a/release-branch/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/release-branch/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-11T00:36:26+00:00</t>
+    <t>2025-01-17T23:10:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/release-branch/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-17T23:10:16+00:00</t>
+    <t>2025-02-07T23:01:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/release-branch/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-07T23:01:35+00:00</t>
+    <t>2025-05-12T18:40:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1544,17 +1544,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="51.10546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.0078125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="28.78515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.8125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.44140625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="24.67578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="86.49609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="74.15625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1563,26 +1563,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="168.19140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="49.01171875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="93.55859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.98046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="144.1953125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="42.01953125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="80.2109375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.98828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="28.1484375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="24.98046875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="42.9765625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.1328125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="21.4140625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.84375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7612,13 +7612,13 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>76</v>
@@ -7726,19 +7726,19 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K55" t="s" s="2">
         <v>277</v>
@@ -8526,7 +8526,7 @@
         <v>86</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>76</v>
@@ -11236,13 +11236,13 @@
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>76</v>
@@ -11350,13 +11350,13 @@
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>76</v>
@@ -12152,7 +12152,7 @@
         <v>86</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I94" t="s" s="2">
         <v>76</v>
@@ -14862,13 +14862,13 @@
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G118" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H118" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I118" t="s" s="2">
         <v>76</v>
@@ -14976,13 +14976,13 @@
       </c>
       <c r="E119" s="2"/>
       <c r="F119" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G119" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H119" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I119" t="s" s="2">
         <v>76</v>
@@ -15776,7 +15776,7 @@
         <v>86</v>
       </c>
       <c r="H126" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I126" t="s" s="2">
         <v>76</v>

--- a/release-branch/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/release-branch/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T18:40:48+00:00</t>
+    <t>2025-05-29T22:30:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/release-branch/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-29T22:30:32+00:00</t>
+    <t>2025-08-19T23:36:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/release-branch/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-19T23:36:05+00:00</t>
+    <t>2025-08-27T22:30:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
